--- a/data/trans_orig/P35_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P35_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>43134</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32234</v>
+        <v>32676</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57969</v>
+        <v>56604</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07455816506246134</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0557176561004191</v>
+        <v>0.05648184274550797</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1002013740878478</v>
+        <v>0.09784044591937373</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>101</v>
@@ -762,19 +762,19 @@
         <v>61575</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>49298</v>
+        <v>51016</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>73003</v>
+        <v>74085</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.07506434093870111</v>
+        <v>0.07506434093870112</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06009822656961473</v>
+        <v>0.06219208444908409</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08899628858780291</v>
+        <v>0.09031491496074857</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>150</v>
@@ -783,19 +783,19 @@
         <v>104709</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>88815</v>
+        <v>90164</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>122382</v>
+        <v>124509</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.07485499516065841</v>
+        <v>0.07485499516065842</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06349241259484703</v>
+        <v>0.06445670402223208</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08748899326846016</v>
+        <v>0.08900985188389159</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>15902</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10117</v>
+        <v>9853</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24577</v>
+        <v>22985</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02748729454263225</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01748672686402402</v>
+        <v>0.0170314338879915</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04248193905053994</v>
+        <v>0.03972945448673543</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>58</v>
@@ -833,19 +833,19 @@
         <v>36066</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26951</v>
+        <v>28392</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>46659</v>
+        <v>45997</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04396683223149613</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03285520188531016</v>
+        <v>0.03461235791157652</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05688137773315348</v>
+        <v>0.05607356023622997</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>79</v>
@@ -854,19 +854,19 @@
         <v>51968</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>42400</v>
+        <v>41263</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>65928</v>
+        <v>64830</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.03715117427306562</v>
+        <v>0.03715117427306563</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03031104965807153</v>
+        <v>0.02949803362762127</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04713097793086281</v>
+        <v>0.04634581140996721</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>178818</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>158405</v>
+        <v>157879</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>198471</v>
+        <v>200513</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3090909283361927</v>
+        <v>0.3090909283361926</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2738066767100796</v>
+        <v>0.2728969165629528</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3430623123635327</v>
+        <v>0.3465911699469134</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>538</v>
@@ -904,19 +904,19 @@
         <v>301381</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>281241</v>
+        <v>280657</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>322911</v>
+        <v>320953</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.3674062101204778</v>
+        <v>0.367406210120478</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3428539351134265</v>
+        <v>0.3421426489002258</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3936537461497472</v>
+        <v>0.3912659028137786</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>784</v>
@@ -925,19 +925,19 @@
         <v>480199</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>452046</v>
+        <v>448845</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>512101</v>
+        <v>508953</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3432879962545777</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3231613375049301</v>
+        <v>0.3208730899680577</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3660944310066631</v>
+        <v>0.3638435936802186</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>340675</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>317240</v>
+        <v>318500</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>362707</v>
+        <v>363341</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5888636120587138</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5483559228615034</v>
+        <v>0.5505344969457298</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6269468237445726</v>
+        <v>0.6280421452444105</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>727</v>
@@ -975,19 +975,19 @@
         <v>421272</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>398209</v>
+        <v>397313</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>443982</v>
+        <v>442655</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.5135626167093249</v>
+        <v>0.513562616709325</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4854471537206522</v>
+        <v>0.4843543808839172</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5412477010180895</v>
+        <v>0.5396303868879819</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1102</v>
@@ -996,19 +996,19 @@
         <v>761947</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>729877</v>
+        <v>730236</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>796651</v>
+        <v>796772</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.5447058343116982</v>
+        <v>0.5447058343116983</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5217793487578644</v>
+        <v>0.5220360054953724</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5695154986938333</v>
+        <v>0.5696015209850076</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>213093</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>183037</v>
+        <v>182675</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>249897</v>
+        <v>247397</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.0955331909600645</v>
+        <v>0.09553319096006452</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08205857054763711</v>
+        <v>0.08189606392569801</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1120327943138537</v>
+        <v>0.1109121489962031</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>248</v>
@@ -1121,19 +1121,19 @@
         <v>215750</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>186441</v>
+        <v>189426</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>244611</v>
+        <v>249294</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.09944926809008518</v>
+        <v>0.0994492680900852</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08593962600024274</v>
+        <v>0.08731560330207222</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.112752922149301</v>
+        <v>0.1149114783190474</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>431</v>
@@ -1142,19 +1142,19 @@
         <v>428843</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>383087</v>
+        <v>385938</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>476497</v>
+        <v>474469</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.09746402972021992</v>
+        <v>0.09746402972021991</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08706493378371168</v>
+        <v>0.08771307576383003</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1082945785068215</v>
+        <v>0.1078336124331251</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>67167</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>52409</v>
+        <v>52849</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>87579</v>
+        <v>85964</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03011210772625991</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02349583515383272</v>
+        <v>0.02369315336444463</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03926290982614555</v>
+        <v>0.03853915324272073</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>90</v>
@@ -1192,19 +1192,19 @@
         <v>70698</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56431</v>
+        <v>57380</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>87732</v>
+        <v>88504</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03258791079929586</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0260119568940869</v>
+        <v>0.02644896086859117</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04043987663065228</v>
+        <v>0.04079556711262489</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>157</v>
@@ -1213,19 +1213,19 @@
         <v>137865</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>116509</v>
+        <v>117018</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>161206</v>
+        <v>159978</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03133281313557969</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02647932758579294</v>
+        <v>0.02659483462554742</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03663761713619555</v>
+        <v>0.03635861857951355</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>462800</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>420656</v>
+        <v>423433</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>508535</v>
+        <v>504438</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2074809768026918</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1885871691164109</v>
+        <v>0.1898319466552435</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2279848319219475</v>
+        <v>0.2261480230133526</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>752</v>
@@ -1263,19 +1263,19 @@
         <v>517660</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>485120</v>
+        <v>481525</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>555806</v>
+        <v>553180</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2386143300193164</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2236150252453234</v>
+        <v>0.2219578263664566</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.256197346875891</v>
+        <v>0.2549867955819626</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1236</v>
@@ -1284,19 +1284,19 @@
         <v>980461</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>929687</v>
+        <v>930439</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1035319</v>
+        <v>1036858</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2228314112115133</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2112920164292628</v>
+        <v>0.2114629565807977</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2352992309438225</v>
+        <v>0.2356489518836951</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>1487506</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1430418</v>
+        <v>1434091</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1541110</v>
+        <v>1536636</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6668737245109838</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6412803071630763</v>
+        <v>0.6429271720236082</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.690905166082627</v>
+        <v>0.6888994815194375</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1828</v>
@@ -1334,19 +1334,19 @@
         <v>1365336</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1325594</v>
+        <v>1322351</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1405078</v>
+        <v>1406618</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.6293484910913029</v>
+        <v>0.6293484910913026</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6110295192372446</v>
+        <v>0.6095347278825134</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6476672872774502</v>
+        <v>0.6483773523409511</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3086</v>
@@ -1355,19 +1355,19 @@
         <v>2852843</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2785727</v>
+        <v>2786693</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2911568</v>
+        <v>2914117</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.648371745932687</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6331181889600285</v>
+        <v>0.6333377997823703</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.661718376661893</v>
+        <v>0.6622977549458694</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>28934</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18492</v>
+        <v>18017</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>42168</v>
+        <v>42560</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.04066069539053922</v>
+        <v>0.04066069539053921</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02598648466134778</v>
+        <v>0.02531913548454896</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05925915450118712</v>
+        <v>0.05981057990090326</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>24</v>
@@ -1480,19 +1480,19 @@
         <v>17650</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11184</v>
+        <v>11557</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26852</v>
+        <v>27252</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.02403375932180859</v>
+        <v>0.02403375932180858</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01522863216441526</v>
+        <v>0.01573701407914052</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03656407932011216</v>
+        <v>0.03710794552068136</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>50</v>
@@ -1501,19 +1501,19 @@
         <v>46584</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>33670</v>
+        <v>33999</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>61032</v>
+        <v>62797</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03221611015261356</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02328495187907383</v>
+        <v>0.02351306982624108</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04220796982282879</v>
+        <v>0.04342838314992799</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>15331</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8377</v>
+        <v>8867</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>26585</v>
+        <v>27163</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.02154519516326171</v>
+        <v>0.0215451951632617</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01177253125432866</v>
+        <v>0.01246062932830308</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0373601799746039</v>
+        <v>0.03817293265090729</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>16</v>
@@ -1551,19 +1551,19 @@
         <v>13299</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7769</v>
+        <v>7812</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>21607</v>
+        <v>23032</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01810917460055946</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01057856267192145</v>
+        <v>0.01063740284175994</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02942149981745671</v>
+        <v>0.03136223859214538</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>29</v>
@@ -1572,19 +1572,19 @@
         <v>28631</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>19666</v>
+        <v>19676</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>41969</v>
+        <v>41723</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01980008900533447</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01360062113509343</v>
+        <v>0.01360718686539139</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02902437473490397</v>
+        <v>0.02885439662294812</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>187430</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>161951</v>
+        <v>163884</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>213298</v>
+        <v>212665</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2633969942345211</v>
+        <v>0.263396994234521</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.22759195184696</v>
+        <v>0.2303075268108697</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2997501608528153</v>
+        <v>0.2988600068540373</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>242</v>
@@ -1622,19 +1622,19 @@
         <v>175788</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>155420</v>
+        <v>157865</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>197262</v>
+        <v>200339</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2393655682633803</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2116308711350392</v>
+        <v>0.2149592103489692</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2686048756352941</v>
+        <v>0.2727949224355213</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>437</v>
@@ -1643,19 +1643,19 @@
         <v>363218</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>328997</v>
+        <v>330410</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>394174</v>
+        <v>395301</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.251191773491305</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2275255957756301</v>
+        <v>0.2285021459374463</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2725996028045644</v>
+        <v>0.2733790959178997</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>479892</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>450633</v>
+        <v>452514</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>506922</v>
+        <v>504260</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6743971152116781</v>
+        <v>0.674397115211678</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.633278638536659</v>
+        <v>0.6359224849648104</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7123826700862042</v>
+        <v>0.7086413382014962</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>721</v>
@@ -1693,19 +1693,19 @@
         <v>527655</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>506085</v>
+        <v>503989</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>550495</v>
+        <v>548286</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7184914978142514</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6891203283960129</v>
+        <v>0.6862656360140889</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7495917357773854</v>
+        <v>0.7465843445526017</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1168</v>
@@ -1714,19 +1714,19 @@
         <v>1007547</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>975970</v>
+        <v>970894</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1042386</v>
+        <v>1042776</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.696792027350747</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6749538003513563</v>
+        <v>0.6714436980793972</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7208857667197837</v>
+        <v>0.7211553223947439</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>285161</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>249342</v>
+        <v>253414</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>323361</v>
+        <v>328788</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.08099588974454915</v>
+        <v>0.08099588974454916</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07082203181600732</v>
+        <v>0.07197857204937166</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0918459918234362</v>
+        <v>0.09338767659748336</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>373</v>
@@ -1839,19 +1839,19 @@
         <v>294975</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>266616</v>
+        <v>263017</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>328837</v>
+        <v>328217</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07920631791312351</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0715914738060935</v>
+        <v>0.0706249694156523</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08829912896856226</v>
+        <v>0.0881325223655777</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>631</v>
@@ -1860,19 +1860,19 @@
         <v>580135</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>536194</v>
+        <v>531449</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>634166</v>
+        <v>625269</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08007597663982788</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07401079189720738</v>
+        <v>0.07335583035602521</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08753381561851983</v>
+        <v>0.08630569801237115</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>98401</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>80370</v>
+        <v>80736</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>119682</v>
+        <v>119178</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.02794927851140589</v>
+        <v>0.0279492785114059</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02282799949650863</v>
+        <v>0.02293189671653742</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03399408556564414</v>
+        <v>0.03385092321978208</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>164</v>
@@ -1910,19 +1910,19 @@
         <v>120063</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>102460</v>
+        <v>101936</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>141052</v>
+        <v>140132</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.03223909843085537</v>
+        <v>0.03223909843085538</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02751238340057006</v>
+        <v>0.02737170381555153</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03787526031752452</v>
+        <v>0.03762805257522293</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>265</v>
@@ -1931,19 +1931,19 @@
         <v>218463</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>191728</v>
+        <v>189908</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>247999</v>
+        <v>247714</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03015442137938016</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02646420665975018</v>
+        <v>0.02621299986656299</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03423119644088154</v>
+        <v>0.03419185049325331</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>829048</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>776911</v>
+        <v>778328</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>879387</v>
+        <v>881061</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2354793694700136</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2206704019474256</v>
+        <v>0.2210731044353572</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2497774561937209</v>
+        <v>0.2502529625446769</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1532</v>
@@ -1981,19 +1981,19 @@
         <v>994830</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>950830</v>
+        <v>949100</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1040007</v>
+        <v>1037433</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2671307405319248</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2553159013568245</v>
+        <v>0.2548513825991857</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2792617956665986</v>
+        <v>0.2785706605828844</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2457</v>
@@ -2002,19 +2002,19 @@
         <v>1823878</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1756141</v>
+        <v>1758837</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1896937</v>
+        <v>1895607</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.2517494685579347</v>
+        <v>0.2517494685579346</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2423997013206852</v>
+        <v>0.2427718785646148</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2618338680365933</v>
+        <v>0.2616502314329044</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>2308073</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2248660</v>
+        <v>2249197</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2369728</v>
+        <v>2360742</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6555754622740314</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6387000582898283</v>
+        <v>0.6388525423859539</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6730877153641189</v>
+        <v>0.670535276603647</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3276</v>
@@ -2052,19 +2052,19 @@
         <v>2314263</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2262001</v>
+        <v>2266603</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2364276</v>
+        <v>2369270</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6214238431240964</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6073905355418407</v>
+        <v>0.6086261387311643</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6348533094707509</v>
+        <v>0.6361943415385382</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5356</v>
@@ -2073,19 +2073,19 @@
         <v>4622337</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4534561</v>
+        <v>4536664</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4699815</v>
+        <v>4704744</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6380201334228575</v>
+        <v>0.6380201334228573</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6259045363896315</v>
+        <v>0.6261947033078811</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6487144142772201</v>
+        <v>0.6493947909684346</v>
       </c>
     </row>
     <row r="23">
